--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.8645905868502</v>
+        <v>2066.761917344469</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.18459058684612</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16.42556716767945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.332632436278654</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220.9800000000041</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.7</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.33301651610693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.61204927984102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.88983639808123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.95784031971738</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,272 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999962</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17500000000014</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.60999999999949</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.52499999999948</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>99.18999999999947</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>91.4449999999995</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>96.44</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>113.295000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>121.65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>125.910000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.085000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>99.60999999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>92.52499999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>99.18999999999947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>91.4449999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.68999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.85999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.12999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.87499999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.53999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>113.295000000001</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>121.65</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>123.55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>125.910000000001</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>126.085000000001</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13.295</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.65</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>23.55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>25.91000000000102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>26.08500000000102</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2376,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2387,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2398,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,12 +2420,166 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
